--- a/ComparedResults/DIV10_Tables.xlsx
+++ b/ComparedResults/DIV10_Tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\DIV10\ComparedResults\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A078C52C-E3BD-4833-9B78-8E515BA122E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAACE510-90F7-4977-9531-F4F45CF4FEDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3810" yWindow="3810" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2295" yWindow="2295" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TotalInvoicePayment" sheetId="1" r:id="rId1"/>
@@ -932,10 +932,10 @@
         <v>9</v>
       </c>
       <c r="B2" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="C2" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="D2" s="2">
         <v>0</v>
@@ -946,13 +946,13 @@
         <v>11</v>
       </c>
       <c r="B3" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="C3" s="2">
-        <v>0.9</v>
+        <v>90.47</v>
       </c>
       <c r="D3" s="4">
-        <v>0.1</v>
+        <v>9.5299999999999994</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -960,13 +960,13 @@
         <v>17</v>
       </c>
       <c r="B4" s="2">
-        <v>0.98</v>
+        <v>97.96</v>
       </c>
       <c r="C4" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="D4" s="3">
-        <v>-0.02</v>
+        <v>-2.04</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -974,10 +974,10 @@
         <v>18</v>
       </c>
       <c r="B5" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="C5" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="D5" s="2">
         <v>0</v>
@@ -2232,10 +2232,10 @@
         <v>9</v>
       </c>
       <c r="B2" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="C2" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="D2" s="2">
         <v>0</v>
@@ -2246,10 +2246,10 @@
         <v>11</v>
       </c>
       <c r="B3" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="C3" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="D3" s="2">
         <v>0</v>
@@ -2260,10 +2260,10 @@
         <v>17</v>
       </c>
       <c r="B4" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="C4" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="D4" s="2">
         <v>0</v>
@@ -2274,13 +2274,13 @@
         <v>18</v>
       </c>
       <c r="B5" s="2">
-        <v>0.92</v>
+        <v>92.46</v>
       </c>
       <c r="C5" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="D5" s="3">
-        <v>-0.08</v>
+        <v>-7.54</v>
       </c>
     </row>
   </sheetData>
